--- a/logs_csv/pdfs/model_8_date_2018-05-19_21-32-03_epochs_100/model_8_date_2018-05-19_21-32-03__epochs_100_step_1.xlsx
+++ b/logs_csv/pdfs/model_8_date_2018-05-19_21-32-03_epochs_100/model_8_date_2018-05-19_21-32-03__epochs_100_step_1.xlsx
@@ -36,7 +36,7 @@
     <t>val_loss</t>
   </si>
   <si>
-    <t>min</t>
+    <t>min/max</t>
   </si>
 </sst>
 </file>
@@ -845,11 +845,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1721,6 +1725,14 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
+      </c>
+      <c r="B53">
+        <f>MAX(B1:B51)</f>
+        <v>0.89349870174714696</v>
+      </c>
+      <c r="C53">
+        <f>MIN(C1:C51)</f>
+        <v>0.32405235667140098</v>
       </c>
       <c r="D53">
         <f>MAX(D1:D51)</f>
